--- a/Code/Results/Cases/Case_5_136/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_136/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.33967577042334</v>
+        <v>8.220758201098169</v>
       </c>
       <c r="C2">
-        <v>7.402211658218603</v>
+        <v>4.934674538863996</v>
       </c>
       <c r="D2">
-        <v>4.798207551823165</v>
+        <v>4.881175997749221</v>
       </c>
       <c r="E2">
-        <v>14.52908422266337</v>
+        <v>12.67062366166256</v>
       </c>
       <c r="F2">
-        <v>18.00076583160036</v>
+        <v>23.90263805532792</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>12.96471473682367</v>
+        <v>20.26921622773892</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.32141234831352</v>
+        <v>8.147799318923429</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.5883261344859</v>
+        <v>13.46619406058953</v>
       </c>
       <c r="N2">
-        <v>11.82090106875747</v>
+        <v>18.33807785221151</v>
       </c>
       <c r="O2">
-        <v>14.382206968413</v>
+        <v>21.41567170606818</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.57291780387416</v>
+        <v>7.928069619367016</v>
       </c>
       <c r="C3">
-        <v>6.997294916204902</v>
+        <v>4.738234524528077</v>
       </c>
       <c r="D3">
-        <v>4.633443768085636</v>
+        <v>4.820547725536432</v>
       </c>
       <c r="E3">
-        <v>13.66304789840716</v>
+        <v>12.45736486036667</v>
       </c>
       <c r="F3">
-        <v>17.60944642016986</v>
+        <v>23.90998162060184</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>13.04642453173709</v>
+        <v>20.34139276162715</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.70013776427556</v>
+        <v>7.951884181708481</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.65100804646742</v>
+        <v>13.29288771035228</v>
       </c>
       <c r="N3">
-        <v>12.01726865574138</v>
+        <v>18.39639283048617</v>
       </c>
       <c r="O3">
-        <v>14.30295040098895</v>
+        <v>21.46902490471118</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.07550075387325</v>
+        <v>7.744015815610854</v>
       </c>
       <c r="C4">
-        <v>6.736477453495803</v>
+        <v>4.612328853306956</v>
       </c>
       <c r="D4">
-        <v>4.528587501262917</v>
+        <v>4.782338047141677</v>
       </c>
       <c r="E4">
-        <v>13.11524946681922</v>
+        <v>12.32896841116273</v>
       </c>
       <c r="F4">
-        <v>17.38098984861249</v>
+        <v>23.92074991205238</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>13.10655737647171</v>
+        <v>20.38948115228706</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.29942742489444</v>
+        <v>7.830426438291865</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.04465171729502</v>
+        <v>13.18861510946568</v>
       </c>
       <c r="N4">
-        <v>12.14045759543491</v>
+        <v>18.43385432712225</v>
       </c>
       <c r="O4">
-        <v>14.26628198212818</v>
+        <v>21.50634686456365</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.86611377585223</v>
+        <v>7.668040314494499</v>
       </c>
       <c r="C5">
-        <v>6.627164694560479</v>
+        <v>4.55973332520012</v>
       </c>
       <c r="D5">
-        <v>4.484965936217426</v>
+        <v>4.766527833758613</v>
       </c>
       <c r="E5">
-        <v>12.8881934982783</v>
+        <v>12.27736165416737</v>
       </c>
       <c r="F5">
-        <v>17.29092104122981</v>
+        <v>23.92671142334075</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>13.13346423691678</v>
+        <v>20.41002495245291</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.1313559352514</v>
+        <v>7.780711741322239</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.78978005086838</v>
+        <v>13.14671187391404</v>
       </c>
       <c r="N5">
-        <v>12.19133839587774</v>
+        <v>18.44953781459838</v>
       </c>
       <c r="O5">
-        <v>14.25426385168945</v>
+        <v>21.5227009766885</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.83094192991648</v>
+        <v>7.655369648301952</v>
       </c>
       <c r="C6">
-        <v>6.608831925583821</v>
+        <v>4.550923444353474</v>
       </c>
       <c r="D6">
-        <v>4.477669887791936</v>
+        <v>4.763888331842348</v>
       </c>
       <c r="E6">
-        <v>12.85026730808472</v>
+        <v>12.2688378178925</v>
       </c>
       <c r="F6">
-        <v>17.27614962831058</v>
+        <v>23.92779631768748</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>13.13807424915739</v>
+        <v>20.41349342447841</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.103161278735</v>
+        <v>7.772445587380145</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.74698870274976</v>
+        <v>13.13979089846949</v>
       </c>
       <c r="N6">
-        <v>12.19982882413877</v>
+        <v>18.45216730573743</v>
       </c>
       <c r="O6">
-        <v>14.25244210976119</v>
+        <v>21.52548565680573</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.07270393699683</v>
+        <v>7.742994952898908</v>
       </c>
       <c r="C7">
-        <v>6.73501542100358</v>
+        <v>4.611624686104232</v>
       </c>
       <c r="D7">
-        <v>4.528002765458123</v>
+        <v>4.782125784066315</v>
       </c>
       <c r="E7">
-        <v>13.11220247421523</v>
+        <v>12.32826942670869</v>
       </c>
       <c r="F7">
-        <v>17.37976281521281</v>
+        <v>23.92082394218289</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>13.10691065860233</v>
+        <v>20.38975437859705</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.297180010463</v>
+        <v>7.829756758884692</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.0412459367149</v>
+        <v>13.18804753758577</v>
       </c>
       <c r="N7">
-        <v>12.14114100892006</v>
+        <v>18.43406414753481</v>
       </c>
       <c r="O7">
-        <v>14.26610818479345</v>
+        <v>21.50656278846699</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.08082598638563</v>
+        <v>8.120808665561281</v>
       </c>
       <c r="C8">
-        <v>7.265148005997949</v>
+        <v>4.86806380884472</v>
       </c>
       <c r="D8">
-        <v>4.74218346914753</v>
+        <v>4.860480196921204</v>
       </c>
       <c r="E8">
-        <v>14.23391719523658</v>
+        <v>12.59660952864928</v>
       </c>
       <c r="F8">
-        <v>17.86342440469915</v>
+        <v>23.9038709046269</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>12.99075746793348</v>
+        <v>20.29331926060139</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.11122240134869</v>
+        <v>8.080532563724455</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.27152304546605</v>
+        <v>13.40602517712248</v>
       </c>
       <c r="N8">
-        <v>11.8880786617788</v>
+        <v>18.35784193395293</v>
       </c>
       <c r="O8">
-        <v>14.35233594578806</v>
+        <v>21.43311955355918</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.84659974229271</v>
+        <v>8.822558160893996</v>
       </c>
       <c r="C9">
-        <v>8.206784160715797</v>
+        <v>5.32737697964131</v>
       </c>
       <c r="D9">
-        <v>5.131522218947221</v>
+        <v>5.005993962240006</v>
       </c>
       <c r="E9">
-        <v>16.38405140672738</v>
+        <v>13.1396533508682</v>
       </c>
       <c r="F9">
-        <v>18.90268999876163</v>
+        <v>23.92027909411684</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>12.84682064797455</v>
+        <v>20.13418302714154</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.55300856520975</v>
+        <v>8.560009463997263</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.44093244927525</v>
+        <v>13.84815894264731</v>
       </c>
       <c r="N9">
-        <v>11.41155088311694</v>
+        <v>18.22145116971604</v>
       </c>
       <c r="O9">
-        <v>14.62044888708414</v>
+        <v>21.32539691432499</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.01593766150299</v>
+        <v>9.30875641816662</v>
       </c>
       <c r="C10">
-        <v>8.837987424960147</v>
+        <v>5.636506771013741</v>
       </c>
       <c r="D10">
-        <v>5.397289888110072</v>
+        <v>5.107512961311476</v>
       </c>
       <c r="E10">
-        <v>17.98901356660652</v>
+        <v>13.54438947012201</v>
       </c>
       <c r="F10">
-        <v>19.71737170417946</v>
+        <v>23.96253064923669</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>12.79899929731748</v>
+        <v>20.03560008479004</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.51656371044029</v>
+        <v>8.900969501184566</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.88935220183151</v>
+        <v>14.17885303274382</v>
       </c>
       <c r="N10">
-        <v>11.07191623863316</v>
+        <v>18.12913688263252</v>
       </c>
       <c r="O10">
-        <v>14.88265831211818</v>
+        <v>21.2685023827634</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.52040232692511</v>
+        <v>9.522602549761711</v>
       </c>
       <c r="C11">
-        <v>9.111942527782809</v>
+        <v>5.770699597201629</v>
       </c>
       <c r="D11">
-        <v>5.513526784439534</v>
+        <v>5.152440654569376</v>
       </c>
       <c r="E11">
-        <v>18.68890386138353</v>
+        <v>13.72883384716153</v>
       </c>
       <c r="F11">
-        <v>20.09817939019861</v>
+        <v>23.98827233850565</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>12.79135717814431</v>
+        <v>19.99474654074803</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.93402848536627</v>
+        <v>9.052899603146656</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.51745501105695</v>
+        <v>14.32991228314893</v>
       </c>
       <c r="N11">
-        <v>10.9193137933905</v>
+        <v>18.08883679835117</v>
       </c>
       <c r="O11">
-        <v>15.01703105452875</v>
+        <v>21.24747247171424</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.70750867285263</v>
+        <v>9.602459485728085</v>
       </c>
       <c r="C12">
-        <v>9.213791370534247</v>
+        <v>5.820570788022823</v>
       </c>
       <c r="D12">
-        <v>5.556854242307903</v>
+        <v>5.169266447463224</v>
       </c>
       <c r="E12">
-        <v>18.94969499373485</v>
+        <v>13.79865038772125</v>
       </c>
       <c r="F12">
-        <v>20.24377549159474</v>
+        <v>23.99895294670428</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>12.79062308332406</v>
+        <v>19.97985158671253</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.08911418340195</v>
+        <v>9.109920524694054</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.75094396428716</v>
+        <v>14.38715058152368</v>
       </c>
       <c r="N12">
-        <v>10.86176809834439</v>
+        <v>18.07381852327941</v>
       </c>
       <c r="O12">
-        <v>15.0701523596463</v>
+        <v>21.24020805139578</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.66738599339568</v>
+        <v>9.585311760542185</v>
       </c>
       <c r="C13">
-        <v>9.191940432375299</v>
+        <v>5.809872433777523</v>
       </c>
       <c r="D13">
-        <v>5.547553804563986</v>
+        <v>5.165651153475741</v>
       </c>
       <c r="E13">
-        <v>18.89371587836062</v>
+        <v>13.78361659136023</v>
       </c>
       <c r="F13">
-        <v>20.21235795916721</v>
+        <v>23.99661129065876</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>12.79068301911133</v>
+        <v>19.98303387008165</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.05584700232071</v>
+        <v>9.097663640595318</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.70085069959698</v>
+        <v>14.37482256752967</v>
       </c>
       <c r="N13">
-        <v>10.87415137597492</v>
+        <v>18.07704221041464</v>
       </c>
       <c r="O13">
-        <v>15.05861121903861</v>
+        <v>21.24174145833726</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.53587414022178</v>
+        <v>9.529195273929741</v>
       </c>
       <c r="C14">
-        <v>9.12035957205218</v>
+        <v>5.774821566049816</v>
       </c>
       <c r="D14">
-        <v>5.517105263796737</v>
+        <v>5.153828716786197</v>
       </c>
       <c r="E14">
-        <v>18.71044369734122</v>
+        <v>13.73457869164323</v>
       </c>
       <c r="F14">
-        <v>20.11013016808752</v>
+        <v>23.98913237620671</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>12.79125274080062</v>
+        <v>19.99350958470745</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.9468475563723</v>
+        <v>9.057601305006182</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.53675125557756</v>
+        <v>14.33462090967065</v>
       </c>
       <c r="N14">
-        <v>10.91457482187788</v>
+        <v>18.08759638232139</v>
       </c>
       <c r="O14">
-        <v>15.02135617207684</v>
+        <v>21.24686080382911</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.45480925931964</v>
+        <v>9.494674315882415</v>
       </c>
       <c r="C15">
-        <v>9.076268033043897</v>
+        <v>5.75322833265585</v>
       </c>
       <c r="D15">
-        <v>5.498364432557136</v>
+        <v>5.14656253024006</v>
       </c>
       <c r="E15">
-        <v>18.59763497318281</v>
+        <v>13.70453564594264</v>
       </c>
       <c r="F15">
-        <v>20.04769192071119</v>
+        <v>23.98467263681506</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>12.79188690246009</v>
+        <v>20.00000123439892</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.87969181724718</v>
+        <v>9.032993762969799</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.43566993941921</v>
+        <v>14.30999925345002</v>
       </c>
       <c r="N15">
-        <v>10.93936583292795</v>
+        <v>18.09409266380938</v>
       </c>
       <c r="O15">
-        <v>14.99882964112443</v>
+        <v>21.25008764069554</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.98241909907636</v>
+        <v>9.29462758615869</v>
       </c>
       <c r="C16">
-        <v>8.819818732742267</v>
+        <v>5.627605760554173</v>
       </c>
       <c r="D16">
-        <v>5.389598070921572</v>
+        <v>5.104550991384119</v>
       </c>
       <c r="E16">
-        <v>17.94267462925642</v>
+        <v>13.53233566204101</v>
       </c>
       <c r="F16">
-        <v>19.69268383201652</v>
+        <v>23.96097919354832</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>12.7997937921125</v>
+        <v>20.03835040775585</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.48886150853687</v>
+        <v>8.890971813416053</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.84769025200623</v>
+        <v>14.16898885208931</v>
       </c>
       <c r="N16">
-        <v>11.08192473247484</v>
+        <v>18.13180458217717</v>
       </c>
       <c r="O16">
-        <v>14.87418627750822</v>
+        <v>21.26997449764673</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.68560441742332</v>
+        <v>9.169977243428573</v>
       </c>
       <c r="C17">
-        <v>8.659119850615363</v>
+        <v>5.548877887368683</v>
       </c>
       <c r="D17">
-        <v>5.321665251992687</v>
+        <v>5.078452030784126</v>
       </c>
       <c r="E17">
-        <v>17.53320865068409</v>
+        <v>13.42672583092447</v>
       </c>
       <c r="F17">
-        <v>19.47745646476509</v>
+        <v>23.9481110863769</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>12.80835082026752</v>
+        <v>20.06289984857955</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.24375474978675</v>
+        <v>8.802992225524189</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.47914355191733</v>
+        <v>14.08260451854616</v>
       </c>
       <c r="N17">
-        <v>11.16984460422074</v>
+        <v>18.15537273149119</v>
       </c>
       <c r="O17">
-        <v>14.80163642698783</v>
+        <v>21.28341820673368</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.51229665370264</v>
+        <v>9.097595428052143</v>
       </c>
       <c r="C18">
-        <v>8.565448722223117</v>
+        <v>5.502991265674559</v>
       </c>
       <c r="D18">
-        <v>5.282154184609475</v>
+        <v>5.063322987879807</v>
       </c>
       <c r="E18">
-        <v>17.29484385846921</v>
+        <v>13.3660170839505</v>
       </c>
       <c r="F18">
-        <v>19.35462811554659</v>
+        <v>23.94132386531494</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>12.81459289559</v>
+        <v>20.0773957377154</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.10081170516216</v>
+        <v>8.752092934751678</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.26426259714464</v>
+        <v>14.03298054403685</v>
       </c>
       <c r="N18">
-        <v>11.22059454633268</v>
+        <v>18.16908803538276</v>
       </c>
       <c r="O18">
-        <v>14.76132457209494</v>
+        <v>21.29160726349669</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.45317241033778</v>
+        <v>9.072972548324804</v>
       </c>
       <c r="C19">
-        <v>8.533520060199754</v>
+        <v>5.487351689384895</v>
       </c>
       <c r="D19">
-        <v>5.268701816440172</v>
+        <v>5.058180573839182</v>
       </c>
       <c r="E19">
-        <v>17.21364505050839</v>
+        <v>13.34547054718782</v>
       </c>
       <c r="F19">
-        <v>19.31320862046732</v>
+        <v>23.93913144773719</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>12.81692918650148</v>
+        <v>20.08236828355327</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.05207641066739</v>
+        <v>8.734810267819636</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.19100711554763</v>
+        <v>14.01619104507913</v>
       </c>
       <c r="N19">
-        <v>11.23780957719358</v>
+        <v>18.1737592350967</v>
       </c>
       <c r="O19">
-        <v>14.7479168993313</v>
+        <v>21.2944583082689</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.7174684928262</v>
+        <v>9.183318029396208</v>
       </c>
       <c r="C20">
-        <v>8.676354990525027</v>
+        <v>5.557321313964807</v>
       </c>
       <c r="D20">
-        <v>5.328942281380936</v>
+        <v>5.081242534019253</v>
       </c>
       <c r="E20">
-        <v>17.57709133818639</v>
+        <v>13.43796508805359</v>
       </c>
       <c r="F20">
-        <v>19.50026850074044</v>
+        <v>23.94941738623828</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>12.80730232741813</v>
+        <v>20.06024762563135</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.27005008047375</v>
+        <v>8.812388826863481</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.51867592071523</v>
+        <v>14.0917942583305</v>
       </c>
       <c r="N20">
-        <v>11.16046689792752</v>
+        <v>18.15284735940281</v>
       </c>
       <c r="O20">
-        <v>14.80921233724267</v>
+        <v>21.28193983399479</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.57460860382486</v>
+        <v>9.545708997115664</v>
       </c>
       <c r="C21">
-        <v>9.141435898723165</v>
+        <v>5.785142637366151</v>
       </c>
       <c r="D21">
-        <v>5.526067569388919</v>
+        <v>5.157306392372447</v>
       </c>
       <c r="E21">
-        <v>18.76438943844661</v>
+        <v>13.74898367551843</v>
       </c>
       <c r="F21">
-        <v>20.1401197222156</v>
+        <v>23.99130384374588</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>12.79102572967744</v>
+        <v>19.99041698698755</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.97894468985142</v>
+        <v>9.069382890352621</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.58506899444373</v>
+        <v>14.3464285771307</v>
       </c>
       <c r="N21">
-        <v>10.90269518259321</v>
+        <v>18.08448979393588</v>
       </c>
       <c r="O21">
-        <v>15.03223765445131</v>
+        <v>21.2453381425967</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.1119457613603</v>
+        <v>9.775987070629341</v>
       </c>
       <c r="C22">
-        <v>9.434370495367549</v>
+        <v>5.928523438850548</v>
       </c>
       <c r="D22">
-        <v>5.650878059280863</v>
+        <v>5.205923443705226</v>
       </c>
       <c r="E22">
-        <v>19.51568619222561</v>
+        <v>13.95205287832074</v>
       </c>
       <c r="F22">
-        <v>20.56638627173307</v>
+        <v>24.02411303692286</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>12.79303941716269</v>
+        <v>19.94813307071268</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.42477231631493</v>
+        <v>9.264388958834932</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.25664165040243</v>
+        <v>14.5130290358799</v>
       </c>
       <c r="N22">
-        <v>10.7356181403136</v>
+        <v>18.04122708891403</v>
       </c>
       <c r="O22">
-        <v>15.19106578381502</v>
+        <v>21.22549252207374</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.82723984060841</v>
+        <v>9.653704424264108</v>
       </c>
       <c r="C23">
-        <v>9.279031785489684</v>
+        <v>5.852508654515669</v>
       </c>
       <c r="D23">
-        <v>5.584637794205867</v>
+        <v>5.180078061282051</v>
       </c>
       <c r="E23">
-        <v>19.11692569412851</v>
+        <v>13.84371353768598</v>
       </c>
       <c r="F23">
-        <v>20.33816285079826</v>
+        <v>24.00610685233274</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>12.79076327789355</v>
+        <v>19.97039343474963</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.18842267375269</v>
+        <v>9.147701070672364</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.90050853078776</v>
+        <v>14.42411222347823</v>
       </c>
       <c r="N23">
-        <v>10.82467394950941</v>
+        <v>18.06418829578033</v>
       </c>
       <c r="O23">
-        <v>15.10507960056806</v>
+        <v>21.23571114922773</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.70307104737426</v>
+        <v>9.177288893293584</v>
       </c>
       <c r="C24">
-        <v>8.668566980865709</v>
+        <v>5.553505985779399</v>
       </c>
       <c r="D24">
-        <v>5.325653754004219</v>
+        <v>5.079981334452832</v>
       </c>
       <c r="E24">
-        <v>17.55726119429086</v>
+        <v>13.43288378996894</v>
       </c>
       <c r="F24">
-        <v>19.48995234299891</v>
+        <v>23.94882490502092</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>12.8077722415175</v>
+        <v>20.0614455055278</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.25816827790612</v>
+        <v>8.808141611681068</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.50081268163042</v>
+        <v>14.08763944967552</v>
       </c>
       <c r="N24">
-        <v>11.16470592230024</v>
+        <v>18.15398856399847</v>
       </c>
       <c r="O24">
-        <v>14.80578291882443</v>
+        <v>21.28260677325934</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.39146498721133</v>
+        <v>8.637517193199709</v>
       </c>
       <c r="C25">
-        <v>7.962657412926961</v>
+        <v>5.207984684065021</v>
       </c>
       <c r="D25">
-        <v>5.029656450369981</v>
+        <v>4.967545162503132</v>
       </c>
       <c r="E25">
-        <v>15.76559276138708</v>
+        <v>12.99141156243946</v>
       </c>
       <c r="F25">
-        <v>18.61224494687284</v>
+        <v>23.91052810313497</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>12.87609366949879</v>
+        <v>20.17401833771684</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.17971299424203</v>
+        <v>8.432024242600129</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.87982407366902</v>
+        <v>13.72729739277819</v>
       </c>
       <c r="N25">
-        <v>11.53850755244564</v>
+        <v>18.25695665149566</v>
       </c>
       <c r="O25">
-        <v>14.536792632002</v>
+        <v>21.35063941834082</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_136/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_136/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.220758201098169</v>
+        <v>12.33967577042333</v>
       </c>
       <c r="C2">
-        <v>4.934674538863996</v>
+        <v>7.402211658218423</v>
       </c>
       <c r="D2">
-        <v>4.881175997749221</v>
+        <v>4.798207551823337</v>
       </c>
       <c r="E2">
-        <v>12.67062366166256</v>
+        <v>14.52908422266334</v>
       </c>
       <c r="F2">
-        <v>23.90263805532792</v>
+        <v>18.00076583160046</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
-        <v>20.26921622773892</v>
+        <v>12.96471473682377</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.147799318923429</v>
+        <v>11.32141234831344</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.46619406058953</v>
+        <v>14.58832613448591</v>
       </c>
       <c r="N2">
-        <v>18.33807785221151</v>
+        <v>11.8209010687575</v>
       </c>
       <c r="O2">
-        <v>21.41567170606818</v>
+        <v>14.38220696841317</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.928069619367016</v>
+        <v>11.5729178038742</v>
       </c>
       <c r="C3">
-        <v>4.738234524528077</v>
+        <v>6.997294916205123</v>
       </c>
       <c r="D3">
-        <v>4.820547725536432</v>
+        <v>4.633443768085779</v>
       </c>
       <c r="E3">
-        <v>12.45736486036667</v>
+        <v>13.66304789840717</v>
       </c>
       <c r="F3">
-        <v>23.90998162060184</v>
+        <v>17.60944642016974</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>20.34139276162715</v>
+        <v>13.04642453173706</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.951884181708481</v>
+        <v>10.70013776427562</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.29288771035228</v>
+        <v>13.65100804646744</v>
       </c>
       <c r="N3">
-        <v>18.39639283048617</v>
+        <v>12.01726865574138</v>
       </c>
       <c r="O3">
-        <v>21.46902490471118</v>
+        <v>14.30295040098888</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.744015815610854</v>
+        <v>11.07550075387329</v>
       </c>
       <c r="C4">
-        <v>4.612328853306956</v>
+        <v>6.736477453495709</v>
       </c>
       <c r="D4">
-        <v>4.782338047141677</v>
+        <v>4.528587501262807</v>
       </c>
       <c r="E4">
-        <v>12.32896841116273</v>
+        <v>13.11524946681922</v>
       </c>
       <c r="F4">
-        <v>23.92074991205238</v>
+        <v>17.3809898486125</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>20.38948115228706</v>
+        <v>13.10655737647164</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.830426438291865</v>
+        <v>10.29942742489443</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.18861510946568</v>
+        <v>13.04465171729503</v>
       </c>
       <c r="N4">
-        <v>18.43385432712225</v>
+        <v>12.14045759543484</v>
       </c>
       <c r="O4">
-        <v>21.50634686456365</v>
+        <v>14.26628198212816</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.668040314494499</v>
+        <v>10.86611377585226</v>
       </c>
       <c r="C5">
-        <v>4.55973332520012</v>
+        <v>6.627164694560558</v>
       </c>
       <c r="D5">
-        <v>4.766527833758613</v>
+        <v>4.484965936217636</v>
       </c>
       <c r="E5">
-        <v>12.27736165416737</v>
+        <v>12.8881934982783</v>
       </c>
       <c r="F5">
-        <v>23.92671142334075</v>
+        <v>17.29092104122967</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>20.41002495245291</v>
+        <v>13.13346423691672</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.780711741322239</v>
+        <v>10.13135593525151</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.14671187391404</v>
+        <v>12.78978005086844</v>
       </c>
       <c r="N5">
-        <v>18.44953781459838</v>
+        <v>12.19133839587774</v>
       </c>
       <c r="O5">
-        <v>21.5227009766885</v>
+        <v>14.25426385168932</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.655369648301952</v>
+        <v>10.83094192991655</v>
       </c>
       <c r="C6">
-        <v>4.550923444353474</v>
+        <v>6.608831925583821</v>
       </c>
       <c r="D6">
-        <v>4.763888331842348</v>
+        <v>4.477669887792142</v>
       </c>
       <c r="E6">
-        <v>12.2688378178925</v>
+        <v>12.85026730808472</v>
       </c>
       <c r="F6">
-        <v>23.92779631768748</v>
+        <v>17.27614962831026</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>20.41349342447841</v>
+        <v>13.13807424915717</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.772445587380145</v>
+        <v>10.10316127873508</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.13979089846949</v>
+        <v>12.74698870274981</v>
       </c>
       <c r="N6">
-        <v>18.45216730573743</v>
+        <v>12.19982882413867</v>
       </c>
       <c r="O6">
-        <v>21.52548565680573</v>
+        <v>14.25244210976097</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.742994952898908</v>
+        <v>11.0727039369968</v>
       </c>
       <c r="C7">
-        <v>4.611624686104232</v>
+        <v>6.735015421003646</v>
       </c>
       <c r="D7">
-        <v>4.782125784066315</v>
+        <v>4.52800276545819</v>
       </c>
       <c r="E7">
-        <v>12.32826942670869</v>
+        <v>13.1122024742152</v>
       </c>
       <c r="F7">
-        <v>23.92082394218289</v>
+        <v>17.37976281521275</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>20.38975437859705</v>
+        <v>13.10691065860231</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.829756758884692</v>
+        <v>10.29718001046295</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.18804753758577</v>
+        <v>13.04124593671493</v>
       </c>
       <c r="N7">
-        <v>18.43406414753481</v>
+        <v>12.14114100892</v>
       </c>
       <c r="O7">
-        <v>21.50656278846699</v>
+        <v>14.26610818479344</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.120808665561281</v>
+        <v>12.08082598638565</v>
       </c>
       <c r="C8">
-        <v>4.86806380884472</v>
+        <v>7.265148005997982</v>
       </c>
       <c r="D8">
-        <v>4.860480196921204</v>
+        <v>4.742183469147579</v>
       </c>
       <c r="E8">
-        <v>12.59660952864928</v>
+        <v>14.23391719523658</v>
       </c>
       <c r="F8">
-        <v>23.9038709046269</v>
+        <v>17.86342440469914</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>20.29331926060139</v>
+        <v>12.99075746793353</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.080532563724455</v>
+        <v>11.11122240134869</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.40602517712248</v>
+        <v>14.27152304546607</v>
       </c>
       <c r="N8">
-        <v>18.35784193395293</v>
+        <v>11.88807866177884</v>
       </c>
       <c r="O8">
-        <v>21.43311955355918</v>
+        <v>14.35233594578808</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.822558160893996</v>
+        <v>13.84659974229282</v>
       </c>
       <c r="C9">
-        <v>5.32737697964131</v>
+        <v>8.206784160715639</v>
       </c>
       <c r="D9">
-        <v>5.005993962240006</v>
+        <v>5.131522218947274</v>
       </c>
       <c r="E9">
-        <v>13.1396533508682</v>
+        <v>16.38405140672739</v>
       </c>
       <c r="F9">
-        <v>23.92027909411684</v>
+        <v>18.90268999876153</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>20.13418302714154</v>
+        <v>12.84682064797442</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.560009463997263</v>
+        <v>12.55300856520978</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.84815894264731</v>
+        <v>16.44093244927528</v>
       </c>
       <c r="N9">
-        <v>18.22145116971604</v>
+        <v>11.41155088311684</v>
       </c>
       <c r="O9">
-        <v>21.32539691432499</v>
+        <v>14.62044888708406</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.30875641816662</v>
+        <v>15.01593766150297</v>
       </c>
       <c r="C10">
-        <v>5.636506771013741</v>
+        <v>8.837987424960048</v>
       </c>
       <c r="D10">
-        <v>5.107512961311476</v>
+        <v>5.397289888110072</v>
       </c>
       <c r="E10">
-        <v>13.54438947012201</v>
+        <v>17.98901356660652</v>
       </c>
       <c r="F10">
-        <v>23.96253064923669</v>
+        <v>19.71737170417954</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>20.03560008479004</v>
+        <v>12.79899929731753</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.900969501184566</v>
+        <v>13.51656371044024</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.17885303274382</v>
+        <v>17.88935220183147</v>
       </c>
       <c r="N10">
-        <v>18.12913688263252</v>
+        <v>11.07191623863316</v>
       </c>
       <c r="O10">
-        <v>21.2685023827634</v>
+        <v>14.88265831211828</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.522602549761711</v>
+        <v>15.52040232692512</v>
       </c>
       <c r="C11">
-        <v>5.770699597201629</v>
+        <v>9.111942527782862</v>
       </c>
       <c r="D11">
-        <v>5.152440654569376</v>
+        <v>5.513526784439438</v>
       </c>
       <c r="E11">
-        <v>13.72883384716153</v>
+        <v>18.68890386138346</v>
       </c>
       <c r="F11">
-        <v>23.98827233850565</v>
+        <v>20.0981793901987</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>19.99474654074803</v>
+        <v>12.79135717814444</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.052899603146656</v>
+        <v>13.93402848536626</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.32991228314893</v>
+        <v>18.5174550110569</v>
       </c>
       <c r="N11">
-        <v>18.08883679835117</v>
+        <v>10.91931379339067</v>
       </c>
       <c r="O11">
-        <v>21.24747247171424</v>
+        <v>15.01703105452884</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.602459485728085</v>
+        <v>15.70750867285259</v>
       </c>
       <c r="C12">
-        <v>5.820570788022823</v>
+        <v>9.213791370534331</v>
       </c>
       <c r="D12">
-        <v>5.169266447463224</v>
+        <v>5.556854242307903</v>
       </c>
       <c r="E12">
-        <v>13.79865038772125</v>
+        <v>18.94969499373483</v>
       </c>
       <c r="F12">
-        <v>23.99895294670428</v>
+        <v>20.24377549159476</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>19.97985158671253</v>
+        <v>12.79062308332414</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.109920524694054</v>
+        <v>14.08911418340195</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.38715058152368</v>
+        <v>18.75094396428715</v>
       </c>
       <c r="N12">
-        <v>18.07381852327941</v>
+        <v>10.86176809834442</v>
       </c>
       <c r="O12">
-        <v>21.24020805139578</v>
+        <v>15.07015235964634</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.585311760542185</v>
+        <v>15.66738599339564</v>
       </c>
       <c r="C13">
-        <v>5.809872433777523</v>
+        <v>9.19194043237534</v>
       </c>
       <c r="D13">
-        <v>5.165651153475741</v>
+        <v>5.547553804564165</v>
       </c>
       <c r="E13">
-        <v>13.78361659136023</v>
+        <v>18.89371587836063</v>
       </c>
       <c r="F13">
-        <v>23.99661129065876</v>
+        <v>20.2123579591672</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>19.98303387008165</v>
+        <v>12.79068301911143</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.097663640595318</v>
+        <v>14.05584700232068</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.37482256752967</v>
+        <v>18.70085069959696</v>
       </c>
       <c r="N13">
-        <v>18.07704221041464</v>
+        <v>10.87415137597495</v>
       </c>
       <c r="O13">
-        <v>21.24174145833726</v>
+        <v>15.05861121903866</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.529195273929741</v>
+        <v>15.5358741402218</v>
       </c>
       <c r="C14">
-        <v>5.774821566049816</v>
+        <v>9.120359572052166</v>
       </c>
       <c r="D14">
-        <v>5.153828716786197</v>
+        <v>5.5171052637968</v>
       </c>
       <c r="E14">
-        <v>13.73457869164323</v>
+        <v>18.71044369734125</v>
       </c>
       <c r="F14">
-        <v>23.98913237620671</v>
+        <v>20.11013016808758</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>19.99350958470745</v>
+        <v>12.79125274080072</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.057601305006182</v>
+        <v>13.9468475563723</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.33462090967065</v>
+        <v>18.53675125557758</v>
       </c>
       <c r="N14">
-        <v>18.08759638232139</v>
+        <v>10.91457482187798</v>
       </c>
       <c r="O14">
-        <v>21.24686080382911</v>
+        <v>15.02135617207692</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.494674315882415</v>
+        <v>15.45480925931957</v>
       </c>
       <c r="C15">
-        <v>5.75322833265585</v>
+        <v>9.076268033043954</v>
       </c>
       <c r="D15">
-        <v>5.14656253024006</v>
+        <v>5.498364432557136</v>
       </c>
       <c r="E15">
-        <v>13.70453564594264</v>
+        <v>18.59763497318275</v>
       </c>
       <c r="F15">
-        <v>23.98467263681506</v>
+        <v>20.04769192071122</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>20.00000123439892</v>
+        <v>12.79188690246013</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.032993762969799</v>
+        <v>13.87969181724714</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.30999925345002</v>
+        <v>18.43566993941915</v>
       </c>
       <c r="N15">
-        <v>18.09409266380938</v>
+        <v>10.93936583292791</v>
       </c>
       <c r="O15">
-        <v>21.25008764069554</v>
+        <v>14.99882964112445</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.29462758615869</v>
+        <v>14.98241909907633</v>
       </c>
       <c r="C16">
-        <v>5.627605760554173</v>
+        <v>8.819818732742251</v>
       </c>
       <c r="D16">
-        <v>5.104550991384119</v>
+        <v>5.389598070921624</v>
       </c>
       <c r="E16">
-        <v>13.53233566204101</v>
+        <v>17.94267462925642</v>
       </c>
       <c r="F16">
-        <v>23.96097919354832</v>
+        <v>19.69268383201652</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>20.03835040775585</v>
+        <v>12.79979379211252</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.890971813416053</v>
+        <v>13.48886150853683</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.16898885208931</v>
+        <v>17.8476902520062</v>
       </c>
       <c r="N16">
-        <v>18.13180458217717</v>
+        <v>11.08192473247484</v>
       </c>
       <c r="O16">
-        <v>21.26997449764673</v>
+        <v>14.87418627750825</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.169977243428573</v>
+        <v>14.68560441742344</v>
       </c>
       <c r="C17">
-        <v>5.548877887368683</v>
+        <v>8.659119850615335</v>
       </c>
       <c r="D17">
-        <v>5.078452030784126</v>
+        <v>5.321665251992682</v>
       </c>
       <c r="E17">
-        <v>13.42672583092447</v>
+        <v>17.53320865068405</v>
       </c>
       <c r="F17">
-        <v>23.9481110863769</v>
+        <v>19.47745646476504</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>20.06289984857955</v>
+        <v>12.80835082026744</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.802992225524189</v>
+        <v>13.2437547497868</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.08260451854616</v>
+        <v>17.47914355191734</v>
       </c>
       <c r="N17">
-        <v>18.15537273149119</v>
+        <v>11.16984460422071</v>
       </c>
       <c r="O17">
-        <v>21.28341820673368</v>
+        <v>14.80163642698774</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.097595428052143</v>
+        <v>14.51229665370266</v>
       </c>
       <c r="C18">
-        <v>5.502991265674559</v>
+        <v>8.565448722223103</v>
       </c>
       <c r="D18">
-        <v>5.063322987879807</v>
+        <v>5.282154184609533</v>
       </c>
       <c r="E18">
-        <v>13.3660170839505</v>
+        <v>17.29484385846922</v>
       </c>
       <c r="F18">
-        <v>23.94132386531494</v>
+        <v>19.35462811554659</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>20.0773957377154</v>
+        <v>12.81459289558997</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.752092934751678</v>
+        <v>13.10081170516215</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.03298054403685</v>
+        <v>17.26426259714465</v>
       </c>
       <c r="N18">
-        <v>18.16908803538276</v>
+        <v>11.22059454633265</v>
       </c>
       <c r="O18">
-        <v>21.29160726349669</v>
+        <v>14.76132457209494</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.072972548324804</v>
+        <v>14.45317241033776</v>
       </c>
       <c r="C19">
-        <v>5.487351689384895</v>
+        <v>8.533520060199884</v>
       </c>
       <c r="D19">
-        <v>5.058180573839182</v>
+        <v>5.268701816440172</v>
       </c>
       <c r="E19">
-        <v>13.34547054718782</v>
+        <v>17.21364505050838</v>
       </c>
       <c r="F19">
-        <v>23.93913144773719</v>
+        <v>19.31320862046737</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>20.08236828355327</v>
+        <v>12.81692918650156</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.734810267819636</v>
+        <v>13.05207641066737</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.01619104507913</v>
+        <v>17.19100711554763</v>
       </c>
       <c r="N19">
-        <v>18.1737592350967</v>
+        <v>11.23780957719361</v>
       </c>
       <c r="O19">
-        <v>21.2944583082689</v>
+        <v>14.74791689933136</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.183318029396208</v>
+        <v>14.71746849282613</v>
       </c>
       <c r="C20">
-        <v>5.557321313964807</v>
+        <v>8.676354990525169</v>
       </c>
       <c r="D20">
-        <v>5.081242534019253</v>
+        <v>5.328942281380968</v>
       </c>
       <c r="E20">
-        <v>13.43796508805359</v>
+        <v>17.57709133818639</v>
       </c>
       <c r="F20">
-        <v>23.94941738623828</v>
+        <v>19.50026850074044</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>20.06024762563135</v>
+        <v>12.80730232741822</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.812388826863481</v>
+        <v>13.27005008047373</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.0917942583305</v>
+        <v>17.51867592071522</v>
       </c>
       <c r="N20">
-        <v>18.15284735940281</v>
+        <v>11.16046689792759</v>
       </c>
       <c r="O20">
-        <v>21.28193983399479</v>
+        <v>14.80921233724272</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.545708997115664</v>
+        <v>15.5746086038249</v>
       </c>
       <c r="C21">
-        <v>5.785142637366151</v>
+        <v>9.141435898723151</v>
       </c>
       <c r="D21">
-        <v>5.157306392372447</v>
+        <v>5.526067569389016</v>
       </c>
       <c r="E21">
-        <v>13.74898367551843</v>
+        <v>18.76438943844663</v>
       </c>
       <c r="F21">
-        <v>23.99130384374588</v>
+        <v>20.14011972221559</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>19.99041698698755</v>
+        <v>12.79102572967746</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.069382890352621</v>
+        <v>13.97894468985146</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.3464285771307</v>
+        <v>18.58506899444378</v>
       </c>
       <c r="N21">
-        <v>18.08448979393588</v>
+        <v>10.90269518259325</v>
       </c>
       <c r="O21">
-        <v>21.2453381425967</v>
+        <v>15.03223765445131</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.775987070629341</v>
+        <v>16.11194576136034</v>
       </c>
       <c r="C22">
-        <v>5.928523438850548</v>
+        <v>9.434370495367519</v>
       </c>
       <c r="D22">
-        <v>5.205923443705226</v>
+        <v>5.65087805928099</v>
       </c>
       <c r="E22">
-        <v>13.95205287832074</v>
+        <v>19.51568619222559</v>
       </c>
       <c r="F22">
-        <v>24.02411303692286</v>
+        <v>20.56638627173305</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>19.94813307071268</v>
+        <v>12.79303941716267</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.264388958834932</v>
+        <v>14.42477231631496</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14.5130290358799</v>
+        <v>19.25664165040243</v>
       </c>
       <c r="N22">
-        <v>18.04122708891403</v>
+        <v>10.7356181403136</v>
       </c>
       <c r="O22">
-        <v>21.22549252207374</v>
+        <v>15.191065783815</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.653704424264108</v>
+        <v>15.82723984060839</v>
       </c>
       <c r="C23">
-        <v>5.852508654515669</v>
+        <v>9.279031785489767</v>
       </c>
       <c r="D23">
-        <v>5.180078061282051</v>
+        <v>5.584637794205848</v>
       </c>
       <c r="E23">
-        <v>13.84371353768598</v>
+        <v>19.11692569412848</v>
       </c>
       <c r="F23">
-        <v>24.00610685233274</v>
+        <v>20.33816285079833</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>19.97039343474963</v>
+        <v>12.79076327789366</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.147701070672364</v>
+        <v>14.18842267375264</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.42411222347823</v>
+        <v>18.90050853078773</v>
       </c>
       <c r="N23">
-        <v>18.06418829578033</v>
+        <v>10.82467394950945</v>
       </c>
       <c r="O23">
-        <v>21.23571114922773</v>
+        <v>15.10507960056816</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.177288893293584</v>
+        <v>14.70307104737427</v>
       </c>
       <c r="C24">
-        <v>5.553505985779399</v>
+        <v>8.668566980865695</v>
       </c>
       <c r="D24">
-        <v>5.079981334452832</v>
+        <v>5.325653754004364</v>
       </c>
       <c r="E24">
-        <v>13.43288378996894</v>
+        <v>17.55726119429088</v>
       </c>
       <c r="F24">
-        <v>23.94882490502092</v>
+        <v>19.48995234299875</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>20.0614455055278</v>
+        <v>12.80777224151736</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.808141611681068</v>
+        <v>13.25816827790618</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.08763944967552</v>
+        <v>17.50081268163046</v>
       </c>
       <c r="N24">
-        <v>18.15398856399847</v>
+        <v>11.16470592230018</v>
       </c>
       <c r="O24">
-        <v>21.28260677325934</v>
+        <v>14.80578291882432</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.637517193199709</v>
+        <v>13.39146498721133</v>
       </c>
       <c r="C25">
-        <v>5.207984684065021</v>
+        <v>7.962657412927021</v>
       </c>
       <c r="D25">
-        <v>4.967545162503132</v>
+        <v>5.029656450369854</v>
       </c>
       <c r="E25">
-        <v>12.99141156243946</v>
+        <v>15.76559276138704</v>
       </c>
       <c r="F25">
-        <v>23.91052810313497</v>
+        <v>18.61224494687298</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>20.17401833771684</v>
+        <v>12.87609366949889</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.432024242600129</v>
+        <v>12.17971299424201</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.72729739277819</v>
+        <v>15.87982407366901</v>
       </c>
       <c r="N25">
-        <v>18.25695665149566</v>
+        <v>11.53850755244567</v>
       </c>
       <c r="O25">
-        <v>21.35063941834082</v>
+        <v>14.53679263200212</v>
       </c>
     </row>
   </sheetData>
